--- a/classification/RF_Sampling.xlsx
+++ b/classification/RF_Sampling.xlsx
@@ -8,18 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\apps\UNEXT_PythonDashboard_Streamlit\classification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18A4DE32-668E-4F46-A99A-6FE8B19F7F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7FC7B5-1132-4CAE-A25F-AAFD312D1882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{DEE75C85-4629-4C73-A699-22DD38655B46}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{DEE75C85-4629-4C73-A699-22DD38655B46}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$I$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="3" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="20">
   <si>
     <t>default</t>
   </si>
@@ -92,6 +96,15 @@
   <si>
     <t>E</t>
   </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of default</t>
+  </si>
 </sst>
 </file>
 
@@ -125,8 +138,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -144,321 +162,611 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>219360</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>149760</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>143640</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>193800</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="13" name="Ink 12">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E866505E-A661-20B6-1BB4-90119B19BBEB}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="981360" y="149760"/>
-            <a:ext cx="3734280" cy="4235040"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="13" name="Ink 12">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E866505E-A661-20B6-1BB4-90119B19BBEB}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="972720" y="141120"/>
-              <a:ext cx="3751920" cy="4252680"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>453240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>-9283</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>114120</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>43140</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="25" name="Ink 24">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2815DC64-981F-504F-BFFA-486CDE3B93BF}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="7311240" y="-9283"/>
-            <a:ext cx="4232880" cy="2986123"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="25" name="Ink 24">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2815DC64-981F-504F-BFFA-486CDE3B93BF}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7302241" y="-18282"/>
-              <a:ext cx="4250518" cy="3003760"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>641520</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>132930</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>315240</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>77040</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="38" name="Ink 37">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E565FEB2-CF31-484C-E2D5-97B35A5F4E77}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="641520" y="4533480"/>
-            <a:ext cx="5769720" cy="3087360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="38" name="Ink 37">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E565FEB2-CF31-484C-E2D5-97B35A5F4E77}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="632880" y="4524840"/>
-              <a:ext cx="5787360" cy="3105000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Kunaal Naik" refreshedDate="45006.708766550924" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="40" xr:uid="{7B048980-2C6D-4940-A6C0-8788F8C98C70}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:I41" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="9">
+    <cacheField name="Random" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="10"/>
+    </cacheField>
+    <cacheField name="Id" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="40"/>
+    </cacheField>
+    <cacheField name="default" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
+    </cacheField>
+    <cacheField name="amount" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1000" maxValue="18000"/>
+    </cacheField>
+    <cacheField name="grade" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="years" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="16"/>
+    </cacheField>
+    <cacheField name="ownership" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="income" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="4800" maxValue="136000"/>
+    </cacheField>
+    <cacheField name="age" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="21" maxValue="38" count="15">
+        <n v="24"/>
+        <n v="28"/>
+        <n v="36"/>
+        <n v="27"/>
+        <n v="23"/>
+        <n v="21"/>
+        <n v="29"/>
+        <n v="22"/>
+        <n v="25"/>
+        <n v="38"/>
+        <n v="32"/>
+        <n v="35"/>
+        <n v="31"/>
+        <n v="26"/>
+        <n v="30"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
 </file>
 
-<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
-          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
-          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-03-21T04:11:40.970"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">2485 1 5132 0 0,'-1'1'88'0'0,"0"0"0"0"0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 2-1 0 0,26 23 2753 0 0,-18-19-2968 0 0,41 38 2980 0 0,-39-35-2324 0 0,0 1 0 0 0,0-1 0 0 0,1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 0 0 0 0,0-1 0 0 0,21 8 0 0 0,-4-7-245 0 0,-1-1 0 0 0,1-1 0 0 0,0-2 0 0 0,0-1 1 0 0,52-2-1 0 0,155-22-100 0 0,-159 11-109 0 0,31-2 93 0 0,783-51 634 0 0,203 141-501 0 0,-318-11-221 0 0,-714-63-81 0 0,654 26 154 0 0,-2-62-33 0 0,-631 22-105 0 0,91-11-54 0 0,283 0-1 0 0,-451 21 50 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 0 0 0,-1 0 1 0 0,6 3-1 0 0,-8-3-1 0 0,0 1 1 0 0,-1-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 7-1 0 0,13 75 137 0 0,3 135-1 0 0,-18 92 20 0 0,-1-123-5 0 0,-17 402 1748 0 0,-136 855 1 0 0,39-490-1047 0 0,93 6-3 0 0,85-108-250 0 0,31-2-343 0 0,-9-96-123 0 0,93 1132 83 0 0,-122-1294-217 0 0,-42-469 29 0 0,-14-125-39 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,-3 0 0 0 0,-36 19-42 0 0,34-17 40 0 0,-189 82 164 0 0,-202 102-214 0 0,-192 167 141 0 0,-273 144-14 0 0,747-445-101 0 0,-3-5 0 0 0,-1-5 0 0 0,-189 41 0 0 0,-7 5-57 0 0,22-5 314 0 0,271-79-250 0 0,1 0 0 0 0,-1-2 0 0 0,0 0 1 0 0,1-2-1 0 0,-1 0 0 0 0,0-2 0 0 0,-24-3 0 0 0,32 2 21 0 0,1-2 0 0 0,0 0 1 0 0,0 0-1 0 0,1-1 1 0 0,0-1-1 0 0,-1 0 0 0 0,2-1 1 0 0,-1 0-1 0 0,1-1 0 0 0,0-1 1 0 0,1 0-1 0 0,-14-13 1 0 0,-7-12 8 0 0,1-2 1 0 0,2-1-1 0 0,1-1 1 0 0,-37-70-1 0 0,-72-176 426 0 0,93 177-403 0 0,5-2 0 0 0,4-1 0 0 0,6-2 0 0 0,4-1 0 0 0,5-1 0 0 0,-5-120 0 0 0,-8-1054-116 0 0,31 953 80 0 0,2-340-97 0 0,-4-284 13 0 0,-97-572-99 0 0,64 1103 246 0 0,-41-767-180 0 0,75 1140 111 0 0,-7-157 77 0 0,-17-232 142 0 0,-32 3-266 0 0,-87-220 41 0 0,103 505-29 0 0,-7 2 1 0 0,-82-172 0 0 0,-117-245-504 0 0,237 545-761 0 0,11 24-197 0 0,3 5-143 0 0,9 14-642 0 0,-4-7 315 0 0,1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,14 11-1 0 0,-20-18 1437 0 0,16 13-2951 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="441.51">6490 2874 8665 0 0,'-60'52'4298'0'0,"-105"121"1"0"0,-25 84-1830 0 0,-124 301-1827 0 0,-11 104 166 0 0,90-177-1933 0 0,71-167-3891 0 0,132-258 1501 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="906.66">5179 3138 12861 0 0,'-12'-28'581'0'0,"4"14"1013"0"0,8 14-1518 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1 1 187 0 0,-1 1-1 0 0,1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,2 5 0 0 0,11 44 656 0 0,-11-44-589 0 0,11 29 109 0 0,1 0 0 0 0,2-1 0 0 0,37 63 0 0 0,78 93 29 0 0,608 677 983 0 0,-731-861-1524 0 0,241 247-96 0 0,-116-138-2348 0 0,9-14-5134 0 0,-113-84 3056 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1910.75">137 3702 9317 0 0,'-6'-8'754'0'0,"-1"0"0"0"0,0 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,0 0 0 0 0,-12-8 0 0 0,18 14-696 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,-2 1-1 0 0,2 1-78 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,1 0 0 0 0,-2 5 0 0 0,-1 2 28 0 0,0 0-1 0 0,1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1-1 1 0 0,0 1 0 0 0,1 0-1 0 0,0-1 1 0 0,0 0-1 0 0,1 1 1 0 0,0-1 0 0 0,1 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,2-1 0 0 0,6 9-1 0 0,-3-6 2 0 0,1-1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 1 0 0,0-1-1 0 0,0 0 0 0 0,1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 0 0 0 0,0-1 0 0 0,0-1 0 0 0,0 0 0 0 0,20 3 0 0 0,-6-3-9 0 0,0-1 0 0 0,-1-2-1 0 0,1-1 1 0 0,0 0-1 0 0,0-2 1 0 0,0-2-1 0 0,-1 0 1 0 0,47-14 0 0 0,-59 13 4 0 0,0 0 0 0 0,-1-1 0 0 0,1-1 0 0 0,-2 0 0 0 0,1 0 0 0 0,-1-2 0 0 0,20-16 1 0 0,-25 19 15 0 0,0-1 1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1-1 0 0 0,2-15-1 0 0,-2 4 183 0 0,-1 0 0 0 0,0 0 0 0 0,-2 0-1 0 0,0-1 1 0 0,-2 1 0 0 0,0-1 0 0 0,-1 1-1 0 0,-1 0 1 0 0,-1 0 0 0 0,-1 0 0 0 0,-1 1-1 0 0,-11-26 1 0 0,17 45-200 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,-1 0-1 0 0,-13 14 48 0 0,-5 31 121 0 0,16-27-93 0 0,0-1 0 0 0,2 1 0 0 0,0 0 0 0 0,1 0 1 0 0,0 0-1 0 0,2 0 0 0 0,0 0 0 0 0,6 28 0 0 0,3 3 97 0 0,32 88-1 0 0,10 5-9 0 0,100 317 170 0 0,-135-390-297 0 0,-3 1 0 0 0,-2 1-1 0 0,-4 0 1 0 0,-1 128 0 0 0,-10-148-30 0 0,-3 1-1 0 0,-1-1 1 0 0,-3 0-1 0 0,-2 0 1 0 0,-2-1-1 0 0,-3-1 1 0 0,-24 52-1 0 0,25-68 210 0 0,-1 0 0 0 0,-2-1-1 0 0,-1-1 1 0 0,-2-1-1 0 0,-1-1 1 0 0,-1-1 0 0 0,-1-1-1 0 0,-1-1 1 0 0,-2-2 0 0 0,-52 38-1 0 0,70-56-142 0 0,0 0 0 0 0,0-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 0 0 0 0,-17 1 0 0 0,23-3-63 0 0,0-1 1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 0 0 0 0,-3-8 0 0 0,-1-2-3 0 0,1-1 1 0 0,0-1 0 0 0,1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,1 0 1 0 0,1 0 0 0 0,1 1-1 0 0,4-32 1 0 0,3 4 36 0 0,1-1-1 0 0,2 1 1 0 0,33-81 0 0 0,-16 64 55 0 0,3 2 1 0 0,2 1-1 0 0,3 1 0 0 0,2 2 0 0 0,2 2 0 0 0,3 2 0 0 0,2 1 0 0 0,66-55 1 0 0,161-112-2593 0 0,13 26-7672 0 0,-225 151 6423 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2933.04">5355 3951 7725 0 0,'-45'1'7877'0'0,"2"1"-3667"0"0,-161 22-1818 0 0,-896 78-618 0 0,867-99-1777 0 0,-1-10 1 0 0,-399-64-1 0 0,475 35-839 0 0,107 20-3094 0 0,1-1-5199 0 0,44 15 5651 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3446.28">3096 3434 8881 0 0,'-9'-2'461'0'0,"-1"-1"0"0"0,1 1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 1 0 0 0,-15 5-1 0 0,-15 4-325 0 0,-57 26 0 0 0,95-36-116 0 0,-96 45 205 0 0,3 5 0 0 0,-105 73-1 0 0,-9 7 2473 0 0,208-131-2678 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-2-3 0 0 0,1 1-6 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,1-5-1 0 0,-1-12-100 0 0,2 0-1 0 0,4-35 1 0 0,-1 42 199 0 0,0 26-1 0 0,-1 32 4 0 0,-3-42-116 0 0,5 81 170 0 0,4 0 0 0 0,3-1-1 0 0,36 125 1 0 0,-37-171-403 0 0,1 0 0 0 0,3-1 0 0 0,0-1 0 0 0,2 0 0 0 0,2-2 0 0 0,1 0 0 0 0,2 0 1 0 0,0-2-1 0 0,2-1 0 0 0,35 32 0 0 0,-41-45-1478 0 0,0-2 0 0 0,23 14-1 0 0,-1-4-2061 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5489.31">9122 5416 9365 0 0,'-8'-10'659'0'0,"4"4"277"0"0,-1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-12-10 1 0 0,16 16-863 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1 0-91 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 3 0 0 0,-92 467 792 0 0,84-420 36 0 0,3 0 0 0 0,-1 51 1 0 0,7-101-791 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,1 0-1 0 0,11-9 213 0 0,8-24-123 0 0,43-100 172 0 0,78-242 1 0 0,-56 133-597 0 0,-85 242 319 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,10 19 24 0 0,5 56-128 0 0,-10-47 101 0 0,-4-21 14 0 0,9 37 32 0 0,18 45 0 0 0,-25-78 112 0 0,0 0 1 0 0,1-1-1 0 0,0 0 1 0 0,1 0-1 0 0,0 0 1 0 0,1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,17 14 1 0 0,-23-22-114 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,0-2 0 0 0,7-7-24 0 0,0 0 1 0 0,0-1-1 0 0,9-16 0 0 0,-7 11 12 0 0,2-4-32 0 0,-9 13-26 0 0,0 0 1 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,1 1 0 0 0,8-7 1 0 0,-14 12 27 0 0,1 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 25 40 0 0,0-20-58 0 0,-3 89-2090 0 0,-8 48-5820 0 0,10-125 6808 0 0,-3 42-2689 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5921.89">10372 5466 13385 0 0,'0'-4'-671'0'0,"-1"-19"4523"0"0,-3 21-690 0 0,-4 16-1957 0 0,-141 389 833 0 0,32 12-4460 0 0,72-226-4706 0 0,37-136 3588 0 0</inkml:trace>
-</inkml:ink>
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="40">
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="1000"/>
+    <s v="B"/>
+    <n v="2"/>
+    <s v="RENT"/>
+    <n v="19200"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="6500"/>
+    <s v="A"/>
+    <n v="2"/>
+    <s v="MORTGAGE"/>
+    <n v="66000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="2400"/>
+    <s v="A"/>
+    <n v="2"/>
+    <s v="RENT"/>
+    <n v="60000"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <s v="C"/>
+    <n v="3"/>
+    <s v="RENT"/>
+    <n v="62000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="5"/>
+    <n v="1"/>
+    <n v="4000"/>
+    <s v="C"/>
+    <n v="2"/>
+    <s v="RENT"/>
+    <n v="20000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="6"/>
+    <n v="1"/>
+    <n v="5000"/>
+    <s v="A"/>
+    <n v="2"/>
+    <s v="RENT"/>
+    <n v="12000"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="7"/>
+    <n v="1"/>
+    <n v="6000"/>
+    <s v="C"/>
+    <n v="1"/>
+    <s v="RENT"/>
+    <n v="48000"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="8"/>
+    <n v="0"/>
+    <n v="5000"/>
+    <s v="D"/>
+    <n v="2"/>
+    <s v="RENT"/>
+    <n v="40000"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="9"/>
+    <n v="0"/>
+    <n v="4200"/>
+    <s v="A"/>
+    <n v="6"/>
+    <s v="RENT"/>
+    <n v="60000"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="10"/>
+    <n v="0"/>
+    <n v="12000"/>
+    <s v="A"/>
+    <n v="4"/>
+    <s v="MORTGAGE"/>
+    <n v="85000"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="11"/>
+    <n v="1"/>
+    <n v="3600"/>
+    <s v="A"/>
+    <n v="3"/>
+    <s v="RENT"/>
+    <n v="70000"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="12"/>
+    <n v="0"/>
+    <n v="6000"/>
+    <s v="B"/>
+    <n v="1"/>
+    <s v="RENT"/>
+    <n v="72000"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <n v="13"/>
+    <n v="1"/>
+    <n v="4000"/>
+    <s v="A"/>
+    <n v="2"/>
+    <s v="RENT"/>
+    <n v="54000"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <n v="14"/>
+    <n v="0"/>
+    <n v="13000"/>
+    <s v="C"/>
+    <n v="2"/>
+    <s v="MORTGAGE"/>
+    <n v="65000"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="15"/>
+    <n v="1"/>
+    <n v="1500"/>
+    <s v="A"/>
+    <n v="3"/>
+    <s v="RENT"/>
+    <n v="45000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <n v="16"/>
+    <n v="1"/>
+    <n v="4800"/>
+    <s v="D"/>
+    <n v="2"/>
+    <s v="RENT"/>
+    <n v="75000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="17"/>
+    <n v="1"/>
+    <n v="1200"/>
+    <s v="C"/>
+    <n v="0"/>
+    <s v="RENT"/>
+    <n v="4800"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <n v="18"/>
+    <n v="0"/>
+    <n v="7000"/>
+    <s v="A"/>
+    <n v="0"/>
+    <s v="RENT"/>
+    <n v="75800"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="19"/>
+    <n v="1"/>
+    <n v="12000"/>
+    <s v="C"/>
+    <n v="3"/>
+    <s v="MORTGAGE"/>
+    <n v="40000"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="20"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <s v="D"/>
+    <n v="2"/>
+    <s v="RENT"/>
+    <n v="90000"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="21"/>
+    <n v="0"/>
+    <n v="2475"/>
+    <s v="A"/>
+    <n v="16"/>
+    <s v="MORTGAGE"/>
+    <n v="63600"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <n v="22"/>
+    <n v="1"/>
+    <n v="7000"/>
+    <s v="C"/>
+    <n v="0"/>
+    <s v="RENT"/>
+    <n v="54000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <n v="23"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <s v="D"/>
+    <n v="1"/>
+    <s v="RENT"/>
+    <n v="72000"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="24"/>
+    <n v="0"/>
+    <n v="7200"/>
+    <s v="D"/>
+    <n v="1"/>
+    <s v="OWN"/>
+    <n v="42996"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="25"/>
+    <n v="1"/>
+    <n v="7600"/>
+    <s v="C"/>
+    <n v="1"/>
+    <s v="RENT"/>
+    <n v="67680"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <n v="26"/>
+    <n v="0"/>
+    <n v="1800"/>
+    <s v="A"/>
+    <n v="12"/>
+    <s v="RENT"/>
+    <n v="35000"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="27"/>
+    <n v="0"/>
+    <n v="7200"/>
+    <s v="B"/>
+    <n v="1"/>
+    <s v="MORTGAGE"/>
+    <n v="73200"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="28"/>
+    <n v="0"/>
+    <n v="2600"/>
+    <s v="B"/>
+    <n v="2"/>
+    <s v="RENT"/>
+    <n v="40792"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <n v="29"/>
+    <n v="0"/>
+    <n v="7000"/>
+    <s v="B"/>
+    <n v="0"/>
+    <s v="MORTGAGE"/>
+    <n v="85000"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <n v="30"/>
+    <n v="0"/>
+    <n v="12000"/>
+    <s v="B"/>
+    <n v="11"/>
+    <s v="MORTGAGE"/>
+    <n v="136000"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="31"/>
+    <n v="0"/>
+    <n v="7875"/>
+    <s v="B"/>
+    <n v="15"/>
+    <s v="MORTGAGE"/>
+    <n v="55500"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="32"/>
+    <n v="0"/>
+    <n v="6000"/>
+    <s v="A"/>
+    <n v="0"/>
+    <s v="RENT"/>
+    <n v="26400"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="33"/>
+    <n v="0"/>
+    <n v="4000"/>
+    <s v="D"/>
+    <n v="6"/>
+    <s v="MORTGAGE"/>
+    <n v="45000"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="34"/>
+    <n v="0"/>
+    <n v="6250"/>
+    <s v="A"/>
+    <n v="3"/>
+    <s v="RENT"/>
+    <n v="54000"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="35"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <s v="A"/>
+    <n v="0"/>
+    <s v="RENT"/>
+    <n v="46200"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <n v="36"/>
+    <n v="0"/>
+    <n v="4000"/>
+    <s v="C"/>
+    <n v="0"/>
+    <s v="RENT"/>
+    <n v="90000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <n v="37"/>
+    <n v="0"/>
+    <n v="17000"/>
+    <s v="B"/>
+    <n v="1"/>
+    <s v="MORTGAGE"/>
+    <n v="65000"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="38"/>
+    <n v="1"/>
+    <n v="12000"/>
+    <s v="A"/>
+    <n v="1"/>
+    <s v="RENT"/>
+    <n v="60000"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="39"/>
+    <n v="0"/>
+    <n v="3500"/>
+    <s v="A"/>
+    <n v="1"/>
+    <s v="RENT"/>
+    <n v="70000"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="40"/>
+    <n v="0"/>
+    <n v="18000"/>
+    <s v="E"/>
+    <m/>
+    <s v="OWN"/>
+    <n v="72000"/>
+    <x v="8"/>
+  </r>
+</pivotCacheRecords>
 </file>
 
-<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
-          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
-          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-03-21T04:11:49.312"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">4063 991 1740 0 0,'1'-12'538'0'0,"1"-1"0"0"0,0 1 0 0 0,0 0 0 0 0,6-16 0 0 0,5-26 2494 0 0,-6-35 4932 0 0,-6 87-7920 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,1 1-1 0 0,3-1 0 0 0,67-2 422 0 0,-59 3-334 0 0,72 3 42 0 0,154 25-1 0 0,85 39 411 0 0,-233-47-543 0 0,611 141-94 0 0,348 100 526 0 0,-748-173-448 0 0,-236-64-48 0 0,-1 3 0 0 0,90 49 0 0 0,-149-71 39 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,2 16 0 0 0,1 10 34 0 0,-2 1 0 0 0,1 56 1 0 0,-4-67-22 0 0,-2 52 29 0 0,-2 0 0 0 0,-21 116 0 0 0,-48 149 24 0 0,39-199 20 0 0,30-129-93 0 0,-176 748 148 0 0,-55-17 259 0 0,-44 45 930 0 0,232-627-991 0 0,7 1 0 0 0,-35 331 0 0 0,57-134 227 0 0,-16 164 346 0 0,22-449-898 0 0,-3-1 1 0 0,-4 0-1 0 0,-51 135 1 0 0,60-188-14 0 0,-2 0 0 0 0,0-1 0 0 0,-2 0 1 0 0,0 0-1 0 0,-1-2 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1-2 0 0 0,-1 0 0 0 0,-1-1 1 0 0,0 0-1 0 0,-36 20 0 0 0,-11 1-375 0 0,-2-2 0 0 0,-116 39 0 0 0,161-66 249 0 0,-1-1-1 0 0,-1-1 1 0 0,1-1-1 0 0,-1-1 1 0 0,0-1 0 0 0,1-1-1 0 0,-1-1 1 0 0,0-1-1 0 0,-40-8 1 0 0,-6-5 154 0 0,-131-45 1 0 0,186 54-50 0 0,0-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,2-2 0 0 0,-1 1 0 0 0,1-2 0 0 0,1 1 1 0 0,0-2-1 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,1 0 0 0 0,-12-23 0 0 0,9 9-15 0 0,0-1 0 0 0,2 0 0 0 0,1 0 0 0 0,1-1 0 0 0,1 0 0 0 0,2-1 0 0 0,1 1 0 0 0,1-1-1 0 0,2 0 1 0 0,4-55 0 0 0,9-20 39 0 0,44-180-1 0 0,-24 141 20 0 0,83-582 617 0 0,55-238 1266 0 0,-85 663-1830 0 0,140-324-1 0 0,169-270 175 0 0,29-77-113 0 0,-255 472-422 0 0,-87 243 52 0 0,-64 200-2426 0 0,-3 11-6601 0 0,-11 57 405 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1035.7">6152 619 3560 0 0,'-17'-16'-231'0'0,"9"10"897"0"0,1-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,1-1-1 0 0,-1 0 1 0 0,-9-15-1 0 0,16 22-625 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,30 2 376 0 0,-29-3-339 0 0,501 103 2801 0 0,-326-63-2590 0 0,1394 354 1210 0 0,-574-135-1404 0 0,-961-250-42 0 0,130 38-111 0 0,-150-41 73 0 0,0 1 0 0 0,0 0-1 0 0,-1 1 1 0 0,0 1 0 0 0,0 0-1 0 0,-1 1 1 0 0,22 20-1 0 0,-26-18 32 0 0,-1-1-1 0 0,-1 1 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,-1 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,3 16 1 0 0,1 17 125 0 0,7 85 1 0 0,-10 303 170 0 0,-34 2-52 0 0,11-207-149 0 0,-73 612 102 0 0,58-667 156 0 0,-7-1-1 0 0,-108 294 0 0 0,-113 120-28 0 0,-29-12-147 0 0,-97 204 519 0 0,-321 825 2953 0 0,689-1559-3618 0 0,15-33-13 0 0,-2 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,-1-1 1 0 0,0 0-1 0 0,0-1 1 0 0,-15 17-1 0 0,20-27-59 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-6-1-1 0 0,-46-12 42 0 0,41 9-43 0 0,-1239-367-193 0 0,1217 359 194 0 0,0-1 0 0 0,1-2 1 0 0,-40-24-1 0 0,62 31 36 0 0,1 1 0 0 0,1-2 0 0 0,-1 1-1 0 0,1-1 1 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0 0-1 0 0,1 0 1 0 0,0-1 0 0 0,-7-18 0 0 0,2-1-66 0 0,3-1 1 0 0,0 0-1 0 0,2 0 0 0 0,1-1 1 0 0,-1-34-1 0 0,4-170-90 0 0,3 205 157 0 0,14-284-301 0 0,71-413 1 0 0,114-306 918 0 0,-180 945-505 0 0,257-1134 202 0 0,-30 141-376 0 0,-223 974-49 0 0,111-450-834 0 0,-40 288-2748 0 0,-61 193-364 0 0,59-99 1 0 0,-39 92 653 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3135.09">2091 330 5941 0 0,'-6'-5'312'0'0,"1"1"0"0"0,-1-2 0 0 0,1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,1-1-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-10 0 0 0,3 13-245 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 1-1 0 0,0 0 1 0 0,8-4-1 0 0,36-14 258 0 0,1 2 0 0 0,1 2-1 0 0,1 2 1 0 0,96-13 0 0 0,-65 12-141 0 0,-18 4-120 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3135.09">3279 1 16108 0 0,'-36'100'373'0'0,"-174"552"1344"0"0,42 250-133 0 0,67 13-785 0 0,42-346-420 0 0,-177 1659 2645 0 0,-26-398-1885 0 0,253-1780-1002 0 0,3-10 34 0 0,-2 0 0 0 0,-2 0-1 0 0,-24 64 1 0 0,34-103-172 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-3-3 1 0 0,-34-55-33 0 0,33 50 31 0 0,-37-58-25 0 0,-3 1 1 0 0,-2 2 0 0 0,-4 2-1 0 0,-92-87 1 0 0,61 76 39 0 0,-3 4 0 0 0,-170-105 1 0 0,32 43-87 0 0,-233-149 534 0 0,381 227-275 0 0,2-3 1 0 0,3-4 0 0 0,-111-119-1 0 0,156 148-109 0 0,1 0-1 0 0,1-2 0 0 0,2 0 1 0 0,2-1-1 0 0,0-1 0 0 0,3-1 0 0 0,-22-69 1 0 0,26 59-54 0 0,1-1 1 0 0,3-1 0 0 0,2 1 0 0 0,2-1 0 0 0,2 0 0 0 0,5-52 0 0 0,13-67-110 0 0,49-225 1 0 0,71-159 136 0 0,-122 495-55 0 0,449-1447-253 0 0,-348 1155 228 0 0,4-50-117 0 0,102-623-1 0 0,-156 642-143 0 0,-19 126-3981 0 0,-43 237 3093 0 0,-2 7-47 0 0,0 1 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0 0-1 0 0,9-14 0 0 0,-5 15-1000 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4392.34">8643 3523 9713 0 0,'1'-1'-10'0'0,"30"-15"1115"0"0,-8-8 4392 0 0,-23 24-5413 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,-23 3 187 0 0,-18 11-184 0 0,2 1 1 0 0,0 3 0 0 0,-41 24-1 0 0,16-9-89 0 0,-767 369-1216 0 0,272-146-7475 0 0,449-207 5845 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4832.93">6986 2728 14153 0 0,'0'-12'-630'0'0,"0"-12"4051"0"0,-3 47 438 0 0,1 19-2947 0 0,2 0 0 0 0,2 1 0 0 0,7 43 0 0 0,30 126 183 0 0,-11-102-795 0 0,5-1-1 0 0,4-3 0 0 0,5-1 0 0 0,5-1 0 0 0,112 181 1 0 0,366 445 377 0 0,-460-646-579 0 0,-8-10-407 0 0,98 123-543 0 0,-43-75-8678 0 0,-92-102 4493 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5258.52">4518 1971 9405 0 0,'-5'0'453'0'0,"0"1"1"0"0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-5 3 1 0 0,-50 41 96 0 0,29-22-401 0 0,-643 438-11 0 0,373-282-5191 0 0,216-130 2252 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5717.08">3313 1793 13573 0 0,'0'-2'-197'0'0,"-1"-23"3028"0"0,-3 19-1047 0 0,-4 15-1555 0 0,7-5-102 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,2 6-1 0 0,14 52 328 0 0,-15-60-439 0 0,12 37 73 0 0,2-1 1 0 0,2-1 0 0 0,1 0 0 0 0,2-2 0 0 0,2 0 0 0 0,45 57 0 0 0,-28-47-1325 0 0,46 44 0 0 0,52 29-6155 0 0,-85-81 3561 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6275.49">8980 4565 9801 0 0,'0'0'10095'0'0,"6"-20"-6833"0"0,-253 495-2152 0 0,243-467-506 0 0,6-8-209 0 0,12-18-57 0 0,20-32-202 0 0,38-74-146 0 0,135-222 65 0 0,-139 244-134 0 0,102-120 0 0 0,-161 212 98 0 0,11-13-11 0 0,36-33 0 0 0,-51 51-25 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 1-1 0 0,12-2 0 0 0,-14 3 18 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,3 6 1 0 0,3 7-2 0 0,0 0 1 0 0,-1 1 0 0 0,5 23-1 0 0,-11-38 3 0 0,8 35-54 0 0,-2 0-1 0 0,-2 0 0 0 0,0 51 1 0 0,-3-44 89 0 0,15 83 0 0 0,-17-128-31 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-2 0 0 0,34-32 36 0 0,-27 25-56 0 0,37-39 59 0 0,-28 28-75 0 0,0 2 0 0 0,1 0 0 0 0,1 1 0 0 0,39-26 0 0 0,-58 42 33 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 19 34 0 0,-14 29-143 0 0,13-44 82 0 0,-46 124-2772 0 0,-5-1-3994 0 0,30-74 2965 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6697.58">10435 4759 17250 0 0,'10'-9'526'0'0,"39"-37"1856"0"0,67-46 1 0 0,-102 82-2297 0 0,1 0-1 0 0,0 1 1 0 0,1 0 0 0 0,0 2-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 2 0 0 0,2 0-1 0 0,31-5 1 0 0,-44 10-77 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,4 3 0 0 0,-3-2-10 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-3 8 0 0 0,-1 5 15 0 0,-1-1 1 0 0,-1 0-1 0 0,-1 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,-1 0 0 0 0,-1-1 1 0 0,-21 28-1 0 0,-14 11-11 0 0,-55 50 0 0 0,46-49-66 0 0,29-30 24 0 0,6-8 301 0 0,1 0 0 0 0,0 2 0 0 0,2 0-1 0 0,0 1 1 0 0,2 1 0 0 0,-22 41 0 0 0,35-60-192 0 0,0 0-1 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 1 1 0 0,5 1-1 0 0,10 4-12 0 0,0 0 0 0 0,0-1 0 0 0,0-1 0 0 0,25 3 0 0 0,-39-7-42 0 0,564 61-1614 0 0,-315-42-2798 0 0,-53-2-1812 0 0,-106-9 2012 0 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
-          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
-          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-03-21T04:12:00.527"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">3807 590 9145 0 0,'-174'-106'6643'0'0,"161"99"-6374"0"0,3-1 132 0 0,30 3 230 0 0,173-28 465 0 0,196-60-1 0 0,-145 31-543 0 0,671-124-406 0 0,16 97 3 0 0,-88 94-163 0 0,-1 34 0 0 0,-26 0 144 0 0,-696-37 38 0 0,-1-5 1 0 0,0-5 0 0 0,222-45 0 0 0,-334 51-126 0 0,-1 1 0 0 0,0-1 1 0 0,1 1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,10 1 1 0 0,-15 0-27 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 2 0 0 0,-6 118 114 0 0,-34 188-1 0 0,17-157-121 0 0,-88 1099-173 0 0,155 57 1298 0 0,-2-298-165 0 0,-64 501-846 0 0,-3-301 397 0 0,37-817-277 0 0,0 52-20 0 0,-15-334-161 0 0,-34 218 1 0 0,28-274-51 0 0,4-24 13 0 0,0-1 0 0 0,-2 0 0 0 0,-1-1-1 0 0,-2 0 1 0 0,-17 38 0 0 0,24-63-21 0 0,0 0 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-10-1 0 0 0,-11-1-24 0 0,1-2-1 0 0,-1 0 1 0 0,1-2 0 0 0,-29-8 0 0 0,4 1-98 0 0,-42-3 39 0 0,-143-7-1 0 0,-96 18-28 0 0,-5 0 75 0 0,245-1 71 0 0,-151-29-1 0 0,147 10-40 0 0,2-4 0 0 0,0-4 0 0 0,2-4 0 0 0,1-4 0 0 0,-160-97 1 0 0,116 48-74 0 0,4-6 0 0 0,-216-203 1 0 0,258 211 163 0 0,5-4 0 0 0,-132-184 0 0 0,164 195-85 0 0,3-2 0 0 0,4-2 0 0 0,4-2 0 0 0,-39-115 1 0 0,27 22-25 0 0,8-2 1 0 0,7-2-1 0 0,-18-247 1 0 0,14-566 178 0 0,41 904-132 0 0,-1 6-90 0 0,-37-904 131 0 0,19 778-326 0 0,-9 1 0 0 0,-92-339 0 0 0,89 444-1124 0 0,-17-60-2284 0 0,6-1-3349 0 0,30 112 3787 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="449.49">7537 1980 13289 0 0,'-16'30'1463'0'0,"-2"-1"-1"0"0,-30 40 1 0 0,-8 11-1218 0 0,-308 539-133 0 0,134-199-7501 0 0,183-333 4177 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="909.34">6548 2386 15129 0 0,'1'-8'2929'0'0,"5"27"-509"0"0,64 77-2130 0 0,5-2-1 0 0,4-4 1 0 0,3-4 0 0 0,123 100 0 0 0,-42-64-2506 0 0,-108-87-987 0 0,68 32 0 0 0,-49-34-477 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1764.03">1257 2654 11513 0 0,'-25'-21'2419'0'0,"0"-2"1"0"0,-36-45-1 0 0,18 19-2222 0 0,42 48-204 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,-1-1 0 0 0,2 2 8 0 0,0-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,15 69 39 0 0,-14-64-76 0 0,5 17-93 0 0,1 0-1 0 0,2 0 1 0 0,0-1 0 0 0,2 0 0 0 0,0-1 0 0 0,1 0 0 0 0,1-1 0 0 0,1 0-1 0 0,1-2 1 0 0,1 0 0 0 0,0 0 0 0 0,21 15 0 0 0,-28-25 132 0 0,-1-1 1 0 0,1 0-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,0-1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,0-1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-2-1 0 0,0 1 1 0 0,0-1-1 0 0,0-1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-2 1 0 0,0 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,11-6 1 0 0,-6 1 12 0 0,0-1 0 0 0,-1 0-1 0 0,0-1 1 0 0,-1 0 0 0 0,-1-2 0 0 0,0 1 0 0 0,0-2 0 0 0,-2 0 0 0 0,17-26-1 0 0,-22 32 17 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-4-15 0 0 0,4 24-35 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,-1-1 0 0 0,2 2-2 0 0,0 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,0 3 0 0 0,-6 18 3 0 0,2 0 0 0 0,1 1 1 0 0,1-1-1 0 0,1 1 0 0 0,2 36 0 0 0,22 123-8 0 0,-13-119 9 0 0,10 78 60 0 0,1 278 0 0 0,-22-358-17 0 0,-4 0 0 0 0,-2 1 0 0 0,-3-2 0 0 0,-3 1 0 0 0,-2-2 0 0 0,-46 117 0 0 0,51-156 235 0 0,0 0 1 0 0,-2 0-1 0 0,0-1 0 0 0,-2-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-2 1 0 0,-30 26-1 0 0,40-39-234 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,-5-5 1 0 0,-5-7-33 0 0,0 1 0 0 0,1-2 0 0 0,1 0 1 0 0,1-1-1 0 0,0 0 0 0 0,2-1 0 0 0,0 0 0 0 0,-17-40 1 0 0,13 18-43 0 0,1-1 1 0 0,1 0 0 0 0,-9-68 0 0 0,16 75 41 0 0,2-1 0 0 0,2 1 0 0 0,1-1 0 0 0,1 1 0 0 0,3-1 0 0 0,8-47 0 0 0,-7 64-35 0 0,1 0 0 0 0,1 1-1 0 0,1-1 1 0 0,1 1-1 0 0,0 1 1 0 0,2-1 0 0 0,0 1-1 0 0,0 1 1 0 0,2 0-1 0 0,0 0 1 0 0,1 1-1 0 0,0 1 1 0 0,17-15 0 0 0,1 5-615 0 0,0 2 0 0 0,1 0-1 0 0,2 2 1 0 0,0 2 0 0 0,40-17 0 0 0,189-55-7133 0 0,-173 66 4651 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2948.05">365 1745 4416 0 0,'-3'-16'-3'0'0,"0"1"0"0"0,1 0 0 0 0,1-1 0 0 0,0 1-1 0 0,1-1 1 0 0,1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,1 1 0 0 0,0 0-1 0 0,1 0 1 0 0,7-17 0 0 0,9-18 48 0 0,1 1 1 0 0,35-55-1 0 0,-21 44 431 0 0,3 1 0 0 0,3 2-1 0 0,1 2 1 0 0,4 1 0 0 0,1 3 0 0 0,3 2-1 0 0,2 2 1 0 0,2 2 0 0 0,2 3 0 0 0,1 2 0 0 0,116-59-1 0 0,339-115 1509 0 0,-148 68 488 0 0,-358 143-2389 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,11 3-1 0 0,-12-2-43 0 0,-1 1 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 6 1 0 0,13 31 20 0 0,-2 0 0 0 0,-2 1 1 0 0,12 77-1 0 0,3 136 73 0 0,-23-201-108 0 0,28 713 488 0 0,-13-186-105 0 0,40-2-323 0 0,183 432 74 0 0,2 7 143 0 0,-167-295 75 0 0,-52 4-204 0 0,-23-442-110 0 0,-13-1 1 0 0,-55 322-1 0 0,7-331 14 0 0,47-235 75 0 0,-1 0-1 0 0,-2-1 0 0 0,-2-1 1 0 0,-36 62-1 0 0,46-90-126 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-2 0 0 0,-1 1 0 0 0,0-2 0 0 0,0 1 0 0 0,0-1 0 0 0,-1-1 1 0 0,0 0-1 0 0,-18 6 0 0 0,10-6 14 0 0,1-2 0 0 0,0 0 0 0 0,-1-1 0 0 0,0-1 0 0 0,0 0 0 0 0,1-2 0 0 0,-1 0 1 0 0,-31-7-1 0 0,-36-10 389 0 0,1-3 0 0 0,-102-41 0 0 0,-153-90 697 0 0,234 94-990 0 0,2-4 0 0 0,3-5 0 0 0,3-4 0 0 0,3-5 0 0 0,4-4 1 0 0,3-3-1 0 0,4-4 0 0 0,4-4 0 0 0,4-3 0 0 0,-86-139 0 0 0,75 86-144 0 0,6-2 0 0 0,7-4 0 0 0,7-4 0 0 0,6-2 0 0 0,8-2 0 0 0,-59-305 0 0 0,70 186-309 0 0,12-1 0 0 0,13-2 0 0 0,19-294 0 0 0,130-844-4511 0 0,-131 1416 4794 0 0,40-381-3957 0 0,-34 130-1586 0 0,-12 174 3010 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3707.33">9868 3407 9101 0 0,'-4'-4'-96'0'0,"-1"-1"1120"0"0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-13-4 0 0 0,83 35 2694 0 0,47-4-3022 0 0,146 14 0 0 0,118-12-319 0 0,-244-18-208 0 0,1807 69-282 0 0,-1901-76-418 0 0,66-2-2716 0 0,-38-11-4173 0 0,-48 6 3399 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4168.35">11180 2719 10833 0 0,'-10'-8'572'0'0,"0"1"0"0"0,0-1 0 0 0,-1 2 0 0 0,0-1 0 0 0,-1 2 1 0 0,1-1-1 0 0,-1 2 0 0 0,0-1 0 0 0,-16-2 0 0 0,8 3-244 0 0,0 1 0 0 0,0 1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-25 4 0 0 0,-11 5-190 0 0,-1 3-1 0 0,2 2 1 0 0,-63 24 0 0 0,-232 106 233 0 0,14 31 1261 0 0,100-50 1990 0 0,247-130-3531 0 0,1 1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 0 0 0 0,1 1-1 0 0,-1 1 1 0 0,0 0-1 0 0,1 1 1 0 0,0 0 0 0 0,-1 1-1 0 0,1 0 1 0 0,22 4-1 0 0,-15 0-66 0 0,-1 1 0 0 0,0 1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1 2-1 0 0,0 0 1 0 0,23 16-1 0 0,4 8-104 0 0,-2 1 0 0 0,-2 3 0 0 0,-1 1-1 0 0,-2 2 1 0 0,35 47 0 0 0,7 13-787 0 0,113 140-8931 0 0,-149-184 5700 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4701.19">13384 3459 13433 0 0,'-7'-14'497'0'0,"-1"1"1"0"0,0 0-1 0 0,-1 0 0 0 0,-11-11 0 0 0,16 19-342 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 1 0 0 0,0-1 0 0 0,-7-1 0 0 0,11 4-146 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 3-1 0 0,-19 61 146 0 0,17-56-131 0 0,-6 39 172 0 0,1 1 0 0 0,3-1 1 0 0,2 2-1 0 0,2-1 0 0 0,3 0 0 0 0,13 90 0 0 0,-14-133-52 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,8 11 0 0 0,-9-15-85 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,2-1-1 0 0,9-4 49 0 0,0-1-1 0 0,0 0 1 0 0,-1-1-1 0 0,0 0 1 0 0,0-1 0 0 0,-1-1-1 0 0,0 0 1 0 0,14-15-1 0 0,79-101-16 0 0,-93 111-41 0 0,71-106-9 0 0,-5-3-1 0 0,87-188 1 0 0,-15 26-243 0 0,-147 280 184 0 0,1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,10-10 1 0 0,-13 16 15 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,1 0 6 0 0,-1 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 1-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 2-1 0 0,38 136-204 0 0,-26-86 20 0 0,33 85 0 0 0,-39-123 185 0 0,1 0-1 0 0,0-1 1 0 0,1 0 0 0 0,0 0-1 0 0,1-1 1 0 0,1 0-1 0 0,1 0 1 0 0,0-2-1 0 0,18 17 1 0 0,-20-23 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0-1-1 0 0,1 1 1 0 0,0-2-1 0 0,0 1 1 0 0,0-2 0 0 0,0 1-1 0 0,0-2 1 0 0,15 0-1 0 0,-23 1 2 0 0,-1-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,1 4-1 0 0,3 8-129 0 0,0 1 1 0 0,4 27-1 0 0,-3-16-651 0 0,21 113-7869 0 0,-21-101 5016 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5207.75">15217 3658 15081 0 0,'26'-70'2641'0'0,"58"-132"2950"0"0,-73 181-5483 0 0,0 1-1 0 0,1 0 1 0 0,1 1 0 0 0,1 1-1 0 0,1 0 1 0 0,0 1 0 0 0,22-19-1 0 0,-29 30-110 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,1 1-1 0 0,0 0 0 0 0,-1 0 1 0 0,18-1-1 0 0,-21 3 8 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,1 0-1 0 0,0-1 1 0 0,-1 2-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,5 6 0 0 0,-6-4-13 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-3 12 0 0 0,-4 11-110 0 0,-2 0-1 0 0,-15 34 1 0 0,22-58 98 0 0,-50 99-236 0 0,40-82 160 0 0,0 0 0 0 0,1 1 0 0 0,2 0 0 0 0,0 0 0 0 0,2 1 0 0 0,1 1 0 0 0,-5 26 0 0 0,12-48 71 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,6 6 1 0 0,-3-4 3 0 0,1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,12 4-1 0 0,11 2 46 0 0,0-1-1 0 0,1-1 1 0 0,53 8 0 0 0,-79-16-15 0 0,3-1 41 0 0,0 1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 2 0 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 1-1 0 0,5 7 0 0 0,-2-1 31 0 0,1 0 0 0 0,-2 0-1 0 0,1 1 1 0 0,-2 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,5 22 0 0 0,-9-32-56 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-6 3 0 0 0,-5 2-19 0 0,0 0-1 0 0,-1-1 0 0 0,0-1 0 0 0,0-1 1 0 0,0-1-1 0 0,0 0 0 0 0,-28 3 0 0 0,5-3-1360 0 0,-1-3 0 0 0,-44-3 0 0 0,23-2-2332 0 0</inkml:trace>
-</inkml:ink>
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{280651F8-FB55-480F-947A-7EFC5B1467B3}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="16">
+        <item x="5"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="8"/>
+        <item x="13"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="14"/>
+        <item x="12"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="8"/>
+  </rowFields>
+  <rowItems count="16">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of default" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -757,11 +1065,166 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1572CD7F-825B-4E3C-8474-D06C3F1AC2C7}">
+  <dimension ref="A3:B19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>23</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>24</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>25</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>26</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>27</v>
+      </c>
+      <c r="B10" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>28</v>
+      </c>
+      <c r="B11" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>29</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>30</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>31</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>32</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>35</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>36</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>38</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7838F39-9505-42C3-8FAB-9398920859E3}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="270" zoomScaleNormal="270" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView zoomScale="270" zoomScaleNormal="270" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -808,7 +1271,8 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>4</v>
+        <f ca="1">RANDBETWEEN(1,10)</f>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -837,6 +1301,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
+        <f ca="1">RANDBETWEEN(1,10)</f>
         <v>7</v>
       </c>
       <c r="B3">
@@ -866,7 +1331,8 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2</v>
+        <f ca="1">RANDBETWEEN(1,10)</f>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -895,7 +1361,8 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>6</v>
+        <f ca="1">RANDBETWEEN(1,10)</f>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -924,7 +1391,8 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>6</v>
+        <f t="shared" ref="A3:A41" ca="1" si="0">RANDBETWEEN(1,10)</f>
+        <v>1</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -953,7 +1421,8 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>9</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -982,6 +1451,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
+        <f t="shared" ca="1" si="0"/>
         <v>10</v>
       </c>
       <c r="B8">
@@ -1011,7 +1481,8 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -1040,7 +1511,8 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -1069,7 +1541,8 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -1098,7 +1571,8 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -1127,7 +1601,8 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>7</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -1156,7 +1631,8 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>9</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -1185,7 +1661,8 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -1214,7 +1691,8 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>7</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -1243,6 +1721,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
+        <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
       <c r="B17">
@@ -1272,7 +1751,8 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -1301,7 +1781,8 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>8</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -1330,7 +1811,8 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -1359,7 +1841,8 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>7</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -1388,7 +1871,8 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>10</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -1417,7 +1901,8 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>9</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -1446,7 +1931,8 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -1475,7 +1961,8 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>10</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -1504,7 +1991,8 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -1533,7 +2021,8 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -1562,7 +2051,8 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>9</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -1591,7 +2081,8 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -1620,6 +2111,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
+        <f t="shared" ca="1" si="0"/>
         <v>9</v>
       </c>
       <c r="B30">
@@ -1649,7 +2141,8 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>8</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -1678,7 +2171,8 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>6</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -1707,6 +2201,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="B33">
@@ -1736,7 +2231,8 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
       </c>
       <c r="B34">
         <v>33</v>
@@ -1765,7 +2261,8 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>8</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
       </c>
       <c r="B35">
         <v>34</v>
@@ -1794,7 +2291,8 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>4</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
       </c>
       <c r="B36">
         <v>35</v>
@@ -1823,7 +2321,8 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
       </c>
       <c r="B37">
         <v>36</v>
@@ -1852,7 +2351,8 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>9</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
       </c>
       <c r="B38">
         <v>37</v>
@@ -1881,7 +2381,8 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>8</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
       <c r="B39">
         <v>38</v>
@@ -1910,7 +2411,8 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>10</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
       </c>
       <c r="B40">
         <v>39</v>
@@ -1939,7 +2441,8 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>10</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
       </c>
       <c r="B41">
         <v>40</v>
@@ -1968,17 +2471,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D97788A7-DEEA-4F5C-BE4C-1ABEB3F8246E}">
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+    <sheetView topLeftCell="A19" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1997,26 +2500,26 @@
       <c r="F1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
       <c r="J1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="K1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2035,26 +2538,26 @@
       <c r="F2">
         <v>24</v>
       </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
       <c r="J2">
-        <v>4</v>
+        <v>10000</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>10000</v>
+        <v>62000</v>
       </c>
       <c r="M2">
-        <v>3</v>
-      </c>
-      <c r="N2">
-        <v>62000</v>
-      </c>
-      <c r="O2">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -2073,26 +2576,26 @@
       <c r="F3">
         <v>36</v>
       </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
       <c r="J3">
-        <v>5</v>
+        <v>4000</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>4000</v>
+        <v>20000</v>
       </c>
       <c r="M3">
-        <v>2</v>
-      </c>
-      <c r="N3">
-        <v>20000</v>
-      </c>
-      <c r="O3">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>8</v>
       </c>
@@ -2111,26 +2614,26 @@
       <c r="F4">
         <v>21</v>
       </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
       <c r="J4">
-        <v>7</v>
+        <v>6000</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>6000</v>
+        <v>48000</v>
       </c>
       <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>48000</v>
-      </c>
-      <c r="O4">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>9</v>
       </c>
@@ -2149,26 +2652,26 @@
       <c r="F5">
         <v>29</v>
       </c>
+      <c r="H5">
+        <v>12</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
       <c r="J5">
-        <v>12</v>
+        <v>6000</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>6000</v>
+        <v>72000</v>
       </c>
       <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>72000</v>
-      </c>
-      <c r="O5">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10</v>
       </c>
@@ -2187,26 +2690,26 @@
       <c r="F6">
         <v>22</v>
       </c>
+      <c r="H6">
+        <v>13</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
       <c r="J6">
-        <v>13</v>
+        <v>4000</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>4000</v>
+        <v>54000</v>
       </c>
       <c r="M6">
-        <v>2</v>
-      </c>
-      <c r="N6">
-        <v>54000</v>
-      </c>
-      <c r="O6">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>12</v>
       </c>
@@ -2225,26 +2728,26 @@
       <c r="F7">
         <v>25</v>
       </c>
+      <c r="H7">
+        <v>14</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
       <c r="J7">
-        <v>14</v>
+        <v>13000</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>13000</v>
+        <v>65000</v>
       </c>
       <c r="M7">
-        <v>2</v>
-      </c>
-      <c r="N7">
-        <v>65000</v>
-      </c>
-      <c r="O7">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>13</v>
       </c>
@@ -2263,26 +2766,26 @@
       <c r="F8">
         <v>27</v>
       </c>
+      <c r="H8">
+        <v>15</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
       <c r="J8">
-        <v>15</v>
+        <v>1500</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>1500</v>
+        <v>45000</v>
       </c>
       <c r="M8">
-        <v>3</v>
-      </c>
-      <c r="N8">
-        <v>45000</v>
-      </c>
-      <c r="O8">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>14</v>
       </c>
@@ -2301,26 +2804,26 @@
       <c r="F9">
         <v>22</v>
       </c>
+      <c r="H9">
+        <v>17</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
       <c r="J9">
-        <v>17</v>
+        <v>1200</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>1200</v>
+        <v>4800</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>4800</v>
-      </c>
-      <c r="O9">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>17</v>
       </c>
@@ -2339,26 +2842,26 @@
       <c r="F10">
         <v>22</v>
       </c>
+      <c r="H10">
+        <v>18</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
       <c r="J10">
-        <v>18</v>
+        <v>7000</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7000</v>
+        <v>75800</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>75800</v>
-      </c>
-      <c r="O10">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>18</v>
       </c>
@@ -2377,26 +2880,26 @@
       <c r="F11">
         <v>23</v>
       </c>
+      <c r="H11">
+        <v>21</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
       <c r="J11">
-        <v>21</v>
+        <v>2475</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L11">
-        <v>2475</v>
+        <v>63600</v>
       </c>
       <c r="M11">
-        <v>16</v>
-      </c>
-      <c r="N11">
-        <v>63600</v>
-      </c>
-      <c r="O11">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -2415,26 +2918,26 @@
       <c r="F12">
         <v>28</v>
       </c>
+      <c r="H12">
+        <v>23</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
       <c r="J12">
-        <v>23</v>
+        <v>10000</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>10000</v>
+        <v>72000</v>
       </c>
       <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="N12">
-        <v>72000</v>
-      </c>
-      <c r="O12">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -2453,26 +2956,26 @@
       <c r="F13">
         <v>38</v>
       </c>
+      <c r="H13">
+        <v>24</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
       <c r="J13">
-        <v>24</v>
+        <v>7200</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>7200</v>
+        <v>42996</v>
       </c>
       <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13">
-        <v>42996</v>
-      </c>
-      <c r="O13">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>26</v>
       </c>
@@ -2491,26 +2994,26 @@
       <c r="F14">
         <v>29</v>
       </c>
+      <c r="H14">
+        <v>27</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
       <c r="J14">
-        <v>27</v>
+        <v>7200</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>7200</v>
+        <v>73200</v>
       </c>
       <c r="M14">
-        <v>1</v>
-      </c>
-      <c r="N14">
-        <v>73200</v>
-      </c>
-      <c r="O14">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>27</v>
       </c>
@@ -2529,26 +3032,26 @@
       <c r="F15">
         <v>32</v>
       </c>
+      <c r="H15">
+        <v>31</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
       <c r="J15">
-        <v>31</v>
+        <v>7875</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L15">
-        <v>7875</v>
+        <v>55500</v>
       </c>
       <c r="M15">
-        <v>15</v>
-      </c>
-      <c r="N15">
-        <v>55500</v>
-      </c>
-      <c r="O15">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>29</v>
       </c>
@@ -2567,26 +3070,26 @@
       <c r="F16">
         <v>23</v>
       </c>
+      <c r="H16">
+        <v>34</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
       <c r="J16">
-        <v>34</v>
+        <v>6250</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>6250</v>
+        <v>54000</v>
       </c>
       <c r="M16">
-        <v>3</v>
-      </c>
-      <c r="N16">
-        <v>54000</v>
-      </c>
-      <c r="O16">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>32</v>
       </c>
@@ -2605,26 +3108,26 @@
       <c r="F17">
         <v>22</v>
       </c>
+      <c r="H17">
+        <v>35</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
       <c r="J17">
-        <v>35</v>
+        <v>10000</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10000</v>
+        <v>46200</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>46200</v>
-      </c>
-      <c r="O17">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>33</v>
       </c>
@@ -2643,26 +3146,26 @@
       <c r="F18">
         <v>31</v>
       </c>
+      <c r="H18">
+        <v>37</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
       <c r="J18">
-        <v>37</v>
+        <v>17000</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>17000</v>
+        <v>65000</v>
       </c>
       <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="N18">
-        <v>65000</v>
-      </c>
-      <c r="O18">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>36</v>
       </c>
@@ -2681,23 +3184,23 @@
       <c r="F19">
         <v>28</v>
       </c>
+      <c r="H19">
+        <v>40</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
       <c r="J19">
-        <v>40</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
+        <v>18000</v>
       </c>
       <c r="L19">
-        <v>18000</v>
-      </c>
-      <c r="N19">
         <v>72000</v>
       </c>
-      <c r="O19">
+      <c r="M19">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>37</v>
       </c>
@@ -2717,7 +3220,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>38</v>
       </c>
@@ -2737,7 +3240,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -2753,23 +3256,23 @@
       <c r="E23" t="s">
         <v>5</v>
       </c>
+      <c r="H23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" t="s">
+        <v>0</v>
+      </c>
       <c r="J23" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L23" t="s">
-        <v>1</v>
-      </c>
-      <c r="M23" t="s">
-        <v>3</v>
-      </c>
-      <c r="N23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2785,23 +3288,23 @@
       <c r="E24">
         <v>19200</v>
       </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
       <c r="J24">
-        <v>3</v>
+        <v>2400</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>2400</v>
-      </c>
-      <c r="M24">
-        <v>2</v>
-      </c>
-      <c r="N24">
         <v>60000</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2</v>
       </c>
@@ -2817,23 +3320,23 @@
       <c r="E25">
         <v>66000</v>
       </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
       <c r="J25">
-        <v>5</v>
+        <v>4000</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>4000</v>
-      </c>
-      <c r="M25">
-        <v>2</v>
-      </c>
-      <c r="N25">
         <v>20000</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>3</v>
       </c>
@@ -2849,23 +3352,23 @@
       <c r="E26">
         <v>60000</v>
       </c>
+      <c r="H26">
+        <v>7</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
       <c r="J26">
-        <v>7</v>
+        <v>6000</v>
       </c>
       <c r="K26">
         <v>1</v>
       </c>
       <c r="L26">
-        <v>6000</v>
-      </c>
-      <c r="M26">
-        <v>1</v>
-      </c>
-      <c r="N26">
         <v>48000</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>8</v>
       </c>
@@ -2881,23 +3384,23 @@
       <c r="E27">
         <v>40000</v>
       </c>
+      <c r="H27">
+        <v>12</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
       <c r="J27">
-        <v>12</v>
+        <v>6000</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27">
-        <v>6000</v>
-      </c>
-      <c r="M27">
-        <v>1</v>
-      </c>
-      <c r="N27">
         <v>72000</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>11</v>
       </c>
@@ -2913,23 +3416,23 @@
       <c r="E28">
         <v>70000</v>
       </c>
+      <c r="H28">
+        <v>14</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
       <c r="J28">
-        <v>14</v>
+        <v>13000</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>13000</v>
-      </c>
-      <c r="M28">
-        <v>2</v>
-      </c>
-      <c r="N28">
         <v>65000</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>13</v>
       </c>
@@ -2945,23 +3448,23 @@
       <c r="E29">
         <v>54000</v>
       </c>
+      <c r="H29">
+        <v>16</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
       <c r="J29">
-        <v>16</v>
+        <v>4800</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>4800</v>
-      </c>
-      <c r="M29">
-        <v>2</v>
-      </c>
-      <c r="N29">
         <v>75000</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>19</v>
       </c>
@@ -2977,23 +3480,23 @@
       <c r="E30">
         <v>40000</v>
       </c>
+      <c r="H30">
+        <v>18</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
       <c r="J30">
-        <v>18</v>
+        <v>7000</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30">
-        <v>7000</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
         <v>75800</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>20</v>
       </c>
@@ -3009,23 +3512,23 @@
       <c r="E31">
         <v>90000</v>
       </c>
+      <c r="H31">
+        <v>20</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
       <c r="J31">
-        <v>20</v>
+        <v>10000</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L31">
-        <v>10000</v>
-      </c>
-      <c r="M31">
-        <v>2</v>
-      </c>
-      <c r="N31">
         <v>90000</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>22</v>
       </c>
@@ -3041,23 +3544,23 @@
       <c r="E32">
         <v>54000</v>
       </c>
+      <c r="H32">
+        <v>23</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
       <c r="J32">
-        <v>23</v>
+        <v>10000</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32">
-        <v>10000</v>
-      </c>
-      <c r="M32">
-        <v>1</v>
-      </c>
-      <c r="N32">
         <v>72000</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>23</v>
       </c>
@@ -3073,23 +3576,23 @@
       <c r="E33">
         <v>72000</v>
       </c>
+      <c r="H33">
+        <v>25</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
       <c r="J33">
-        <v>25</v>
+        <v>7600</v>
       </c>
       <c r="K33">
         <v>1</v>
       </c>
       <c r="L33">
-        <v>7600</v>
-      </c>
-      <c r="M33">
-        <v>1</v>
-      </c>
-      <c r="N33">
         <v>67680</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>31</v>
       </c>
@@ -3105,23 +3608,23 @@
       <c r="E34">
         <v>55500</v>
       </c>
+      <c r="H34">
+        <v>30</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
       <c r="J34">
-        <v>30</v>
+        <v>12000</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L34">
-        <v>12000</v>
-      </c>
-      <c r="M34">
-        <v>11</v>
-      </c>
-      <c r="N34">
         <v>136000</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -3137,23 +3640,23 @@
       <c r="E35">
         <v>45000</v>
       </c>
+      <c r="H35">
+        <v>32</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
       <c r="J35">
-        <v>32</v>
+        <v>6000</v>
       </c>
       <c r="K35">
         <v>0</v>
       </c>
       <c r="L35">
-        <v>6000</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
         <v>26400</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>39</v>
       </c>
@@ -3169,23 +3672,23 @@
       <c r="E36">
         <v>70000</v>
       </c>
+      <c r="H36">
+        <v>34</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
       <c r="J36">
-        <v>34</v>
+        <v>6250</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L36">
-        <v>6250</v>
-      </c>
-      <c r="M36">
-        <v>3</v>
-      </c>
-      <c r="N36">
         <v>54000</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>40</v>
       </c>
@@ -3198,58 +3701,57 @@
       <c r="E37">
         <v>72000</v>
       </c>
+      <c r="H37">
+        <v>35</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
       <c r="J37">
-        <v>35</v>
+        <v>10000</v>
       </c>
       <c r="K37">
         <v>0</v>
       </c>
       <c r="L37">
-        <v>10000</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
         <v>46200</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H38">
+        <v>37</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
       <c r="J38">
-        <v>37</v>
+        <v>17000</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38">
-        <v>17000</v>
-      </c>
-      <c r="M38">
-        <v>1</v>
-      </c>
-      <c r="N38">
         <v>65000</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H39">
+        <v>38</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
       <c r="J39">
-        <v>38</v>
+        <v>12000</v>
       </c>
       <c r="K39">
         <v>1</v>
       </c>
       <c r="L39">
-        <v>12000</v>
-      </c>
-      <c r="M39">
-        <v>1</v>
-      </c>
-      <c r="N39">
         <v>60000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>